--- a/biology/Botanique/Œnanthe_aquatique/Œnanthe_aquatique.xlsx
+++ b/biology/Botanique/Œnanthe_aquatique/Œnanthe_aquatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_aquatique</t>
+          <t>Œnanthe_aquatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oenanthe aquatica
 L'œnanthe aquatique ou fenouil aquatique (Oenanthe aquatica) est une plante herbacée, toxique, de la famille des Apiaceae et du genre Oenanthe.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_aquatique</t>
+          <t>Œnanthe_aquatique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les parties de la plante sont toxiques, contenant notamment, comme principal poison actif de l'oenanthotoxine (cycutotoxine).
 Les symptômes d'empoisonnement chez l'homme ne sont pas consensuels. Les chevaux, bovins et porcs y semblent sensibles. L'absorption de la plante conduit à une gastro-entérite avec diarrhée et convulsions.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_aquatique</t>
+          <t>Œnanthe_aquatique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Occurrence, répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans toute l'Europe, en Asie occidentale, au Kazakhstan, dans le Caucase et en Sibérie. 
 En Amérique du Nord, l'espèce a été introduite. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_aquatique</t>
+          <t>Œnanthe_aquatique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont certaines zones humides, tels qu'étangs envasés, abords de roselières, à des profondeurs atteignant 1 m. L'espèce tolère de fortes fluctuations du niveau de l'eau et préfère les eaux calcaires (basiques) et eutrophes (riches en nutriments). L'espèce est plutôt rare, mais peut être abondante localement. Hors de l'eau, on la trouve sur des sols humides, parfois assez secs une partie de l'année,  dont le niveau d'eau fluctue fortement et avec une profondeur variant de 50 à 100 centimètres en moyenne.          
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_aquatique</t>
+          <t>Œnanthe_aquatique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce s'est adaptée aux niveaux imprévisiblement fluctuants des berges de zones humides où elle vit, alors que sa cousine proche Oenanthe conioides (endémique des berges de l'estuaire de l'Elbe), s'est adaptée aux niveaux de l'estuaire, rythmés par le cycle des marées[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce s'est adaptée aux niveaux imprévisiblement fluctuants des berges de zones humides où elle vit, alors que sa cousine proche Oenanthe conioides (endémique des berges de l'estuaire de l'Elbe), s'est adaptée aux niveaux de l'estuaire, rythmés par le cycle des marées.
 </t>
         </is>
       </c>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_aquatique</t>
+          <t>Œnanthe_aquatique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,9 +661,11 @@
           <t>Plante médicinale (autrefois)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a autrefois fait partie de la pharmacopée traditionnelle, ce pourquoi elle fait encore l'objet de recherche sur sa biochimie[2]. Elle a fait l'objet de recherche sur sa toxicité/mutagénicité[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a autrefois fait partie de la pharmacopée traditionnelle, ce pourquoi elle fait encore l'objet de recherche sur sa biochimie. Elle a fait l'objet de recherche sur sa toxicité/mutagénicité.
 Elle a été utilisée contre la toux, des flatulences et pour favoriser le drainage. 
 De nos jours, elle n'est plus utilisée qu'en homéopathie et parfois pour des maladies des glandes respiratoires et mammaires, l'indigestion, la gastrite ou comme additif de traitement contre la tuberculose.
 </t>
@@ -656,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_aquatique</t>
+          <t>Œnanthe_aquatique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,9 +696,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’œnanthe aquatique a aussi fait l'objet d'études génétiques[4]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’œnanthe aquatique a aussi fait l'objet d'études génétiques
 </t>
         </is>
       </c>
@@ -687,7 +711,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_aquatique</t>
+          <t>Œnanthe_aquatique</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -705,7 +729,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fleurs
